--- a/skl_demo/LCDataDictionary.xlsx
+++ b/skl_demo/LCDataDictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1800101471/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly.li/PycharmProjects/python_demo/skl_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="480" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -697,9 +694,6 @@
   </si>
   <si>
     <t>Indicates if income was verified by LC, not verified, or if the income source was verified</t>
-  </si>
-  <si>
-    <t>post charge off gross recovery</t>
   </si>
   <si>
     <t>post charge off collection fee</t>
@@ -1838,16 +1832,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>一个值</t>
-    <rPh sb="0" eb="1">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>addr_state</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2019,6 +2003,53 @@
     <rPh sb="0" eb="1">
       <t>xiang t</t>
     </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同1.00</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'tong</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>在循环银行卡上完全可以购买。</t>
+  </si>
+  <si>
+    <t>所有银行卡帐户的当前总余额与高信用/信用限额的比率。</t>
+  </si>
+  <si>
+    <t>12个月内销账次数</t>
+  </si>
+  <si>
+    <t>销账后收取费用</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人发放贷款时FICO所属的上限范围。</t>
+  </si>
+  <si>
+    <t>借款人发放贷款时FICO所属的下限范围。</t>
+  </si>
+  <si>
+    <t>当时投资者为该笔贷款承诺的总金额。</t>
+  </si>
+  <si>
+    <t>工作性质</t>
+    <rPh sb="0" eb="1">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>post charge off gross recovery</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>销账后总回收率</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -2419,7 +2450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2571,6 +2602,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2666,7 +2710,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2725,6 +2769,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3125,9 +3171,9 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3151,11 +3197,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>289</v>
+      <c r="A2" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -3165,11 +3211,11 @@
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>48</v>
@@ -3178,27 +3224,27 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3208,36 +3254,36 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>250</v>
+      <c r="A8" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3246,7 +3292,9 @@
         <v>112</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="37" t="s">
+        <v>445</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>157</v>
       </c>
@@ -3254,10 +3302,12 @@
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="37" t="s">
+        <v>446</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
@@ -3265,23 +3315,25 @@
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="37" t="s">
+        <v>447</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>432</v>
+      </c>
+      <c r="C12" s="37"/>
       <c r="D12" s="3" t="s">
         <v>128</v>
       </c>
@@ -3289,23 +3341,25 @@
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>439</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
@@ -3318,10 +3372,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -3329,11 +3383,11 @@
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>296</v>
+      <c r="A16" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3" t="s">
@@ -3343,10 +3397,10 @@
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
@@ -3360,38 +3414,38 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3401,7 +3455,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>56</v>
@@ -3413,7 +3467,9 @@
         <v>164</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>165</v>
       </c>
@@ -3424,9 +3480,11 @@
         <v>23</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="37" t="s">
+        <v>449</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3435,9 +3493,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="37" t="s">
+        <v>450</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3447,7 +3507,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>218</v>
@@ -3459,7 +3519,9 @@
         <v>4</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="37" t="s">
+        <v>451</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>219</v>
       </c>
@@ -3471,7 +3533,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -3484,10 +3546,10 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -3496,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
@@ -3506,12 +3568,12 @@
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E30" s="24"/>
     </row>
@@ -3528,27 +3590,27 @@
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -3558,10 +3620,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -3582,7 +3644,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -3594,13 +3656,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E37" s="5"/>
       <c r="K37" s="10"/>
@@ -3611,13 +3673,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -3628,7 +3690,7 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="4"/>
     </row>
@@ -3639,7 +3701,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -3659,13 +3721,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -3675,7 +3737,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>64</v>
@@ -3688,7 +3750,7 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>86</v>
@@ -3697,12 +3759,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -3711,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
@@ -3724,7 +3786,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3774,7 +3836,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3818,20 +3880,20 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3842,18 +3904,18 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3864,7 +3926,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3878,10 +3940,10 @@
         <v>42</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>96</v>
@@ -3990,42 +4052,42 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="36" t="s">
         <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="36" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>142</v>
@@ -4049,7 +4111,7 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>73</v>
@@ -4057,66 +4119,66 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -4151,7 +4213,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4164,11 +4226,11 @@
         <v>127</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -4176,10 +4238,10 @@
         <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>75</v>
@@ -4190,7 +4252,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
@@ -4203,18 +4265,18 @@
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
@@ -4223,14 +4285,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C91" s="7"/>
+        <v>439</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>454</v>
+      </c>
       <c r="D91" s="2" t="s">
-        <v>221</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -4239,7 +4303,7 @@
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>76</v>
@@ -4261,18 +4325,18 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
@@ -4285,7 +4349,7 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>79</v>
@@ -4297,7 +4361,7 @@
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>80</v>
@@ -4308,7 +4372,7 @@
         <v>126</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
@@ -4341,7 +4405,7 @@
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>81</v>
@@ -4349,7 +4413,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4359,17 +4423,17 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4379,12 +4443,12 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -4428,11 +4492,11 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="2" t="s">
@@ -4455,7 +4519,7 @@
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>156</v>
@@ -4466,7 +4530,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2" t="s">
@@ -4475,11 +4539,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>220</v>
@@ -4487,452 +4551,452 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="9" t="s">
-        <v>345</v>
+      <c r="A130" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="9" t="s">
-        <v>358</v>
+      <c r="A145" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="9" t="s">
-        <v>343</v>
+      <c r="A146" s="36" t="s">
+        <v>342</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
@@ -5013,7 +5077,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5021,18 +5085,18 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5042,16 +5106,16 @@
         <v>178</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5158,16 +5222,16 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5185,10 +5249,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -5243,7 +5307,7 @@
         <v>198</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -5254,7 +5318,7 @@
         <v>197</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -5305,10 +5369,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -5337,10 +5401,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -5348,10 +5412,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -5362,7 +5426,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -5422,10 +5486,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5513,10 +5577,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="F53" s="6"/>
     </row>
@@ -5704,58 +5768,58 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
@@ -5812,7 +5876,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F85" s="6"/>
     </row>
@@ -5924,18 +5988,18 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -5988,130 +6052,130 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" s="18" t="s">
         <v>308</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" s="18" t="s">
         <v>322</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -6150,7 +6214,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>46</v>
@@ -6158,23 +6222,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>80</v>
@@ -6182,39 +6246,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>176</v>
@@ -6222,10 +6286,10 @@
     </row>
     <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">

--- a/skl_demo/LCDataDictionary.xlsx
+++ b/skl_demo/LCDataDictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly.li/PycharmProjects/python_demo/skl_demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1800101471/PycharmProjects/python_demo2/skl_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="460" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="33240" yWindow="320" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="462">
   <si>
     <t>id</t>
   </si>
@@ -99,12 +102,6 @@
     <t>delinq_2yrs</t>
   </si>
   <si>
-    <t>fico_range_low</t>
-  </si>
-  <si>
-    <t>fico_range_high</t>
-  </si>
-  <si>
     <t>inq_last_6mths</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
   </si>
   <si>
     <t>Indicates if a payment plan has been put in place for the loan</t>
-  </si>
-  <si>
-    <t>Payments received to date for total amount funded</t>
   </si>
   <si>
     <t>Payments received to date for portion of total amount funded by investors</t>
@@ -1523,25 +1517,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>分期账户开户月份数</t>
-    <rPh sb="0" eb="1">
-      <t>fen qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kai hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fen shu</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>总负债金额(总信贷余额)</t>
     <rPh sb="0" eb="1">
       <t>zong</t>
@@ -1569,28 +1544,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>e</t>
-    </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环信用额度／信贷限额</t>
-    <rPh sb="0" eb="1">
-      <t>xun huan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>e du</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xin dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xian e</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2052,12 +2005,177 @@
     <t>销账后总回收率</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>fico_range_high</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>fico_range_low</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类太多</t>
+    <rPh sb="0" eb="1">
+      <t>zhong lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tai duo</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还本金</t>
+    <rPh sb="0" eb="1">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben j</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还利息</t>
+    <rPh sb="0" eb="1">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li xi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还服务费</t>
+    <rPh sb="0" eb="1">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payments received to date for total amount funded</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还总额</t>
+    <rPh sb="0" eb="1">
+      <t>yi huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分期账户开户月份数</t>
+    <rPh sb="0" eb="1">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近开设循环账户（信用卡）的月份数</t>
+    <rPh sb="0" eb="1">
+      <t>zui j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai she</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xun huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue fen</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有账户现金总额</t>
+    <rPh sb="0" eb="1">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用额度／分期信贷额度</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>e du</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,8 +2362,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2449,6 +2573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -2616,7 +2746,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2709,8 +2839,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2771,8 +2907,14 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="98">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2823,6 +2965,9 @@
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2864,6 +3009,9 @@
     <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3171,16 +3319,16 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="196.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="118.83203125" style="6" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
@@ -3188,63 +3336,63 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>292</v>
+      <c r="A3" s="39" t="s">
+        <v>289</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>282</v>
+      <c r="A5" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3254,116 +3402,116 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="37" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="37" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -3372,39 +3520,39 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -3414,38 +3562,38 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3455,49 +3603,51 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="A22" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="37" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>451</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="37" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3507,10 +3657,10 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3520,36 +3670,36 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -3558,72 +3708,72 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>274</v>
+      <c r="A30" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>286</v>
+      <c r="A33" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
+      <c r="A34" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -3634,7 +3784,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -3644,10 +3794,10 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -3656,13 +3806,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E37" s="5"/>
       <c r="K37" s="10"/>
@@ -3670,64 +3820,64 @@
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -3737,10 +3887,10 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F43" s="4"/>
     </row>
@@ -3750,21 +3900,21 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -3773,11 +3923,11 @@
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="4"/>
       <c r="K46" s="10"/>
@@ -3786,12 +3936,12 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F47" s="4"/>
       <c r="K47" s="10"/>
@@ -3800,12 +3950,12 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F48" s="4"/>
       <c r="K48" s="12"/>
@@ -3813,450 +3963,452 @@
       <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
-        <v>123</v>
+      <c r="A49" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
-        <v>270</v>
+      <c r="A55" s="40" t="s">
+        <v>267</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E73"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -4265,10 +4417,10 @@
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -4276,47 +4428,47 @@
         <v>15</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -4325,22 +4477,22 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -4349,10 +4501,10 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -4361,168 +4513,178 @@
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="9" t="s">
-        <v>111</v>
+      <c r="A99" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="C99" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="D99" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>90</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>432</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="9" t="s">
-        <v>215</v>
+      <c r="A112" s="40" t="s">
+        <v>212</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -4530,478 +4692,478 @@
         <v>16</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="7" t="s">
-        <v>291</v>
+      <c r="A114" s="38" t="s">
+        <v>288</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="31" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="31" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D154" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5033,18 +5195,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5052,10 +5214,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5063,10 +5225,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5074,10 +5236,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5085,47 +5247,47 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5133,10 +5295,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5144,30 +5306,30 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5175,10 +5337,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5186,10 +5348,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5197,10 +5359,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5211,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5222,16 +5384,16 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5239,20 +5401,20 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -5260,10 +5422,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -5271,10 +5433,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -5282,10 +5444,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -5293,10 +5455,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -5304,10 +5466,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -5315,10 +5477,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -5326,10 +5488,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -5340,7 +5502,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -5348,10 +5510,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -5362,27 +5524,27 @@
         <v>0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -5390,10 +5552,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -5401,10 +5563,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -5412,10 +5574,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -5423,10 +5585,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -5437,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -5445,10 +5607,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -5456,60 +5618,60 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -5517,357 +5679,357 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F84" s="6"/>
     </row>
@@ -5876,71 +6038,71 @@
         <v>18</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D92"/>
     </row>
@@ -5949,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
@@ -5959,87 +6121,87 @@
         <v>19</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -6047,140 +6209,140 @@
         <v>16</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B123" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6214,82 +6376,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">

--- a/skl_demo/LCDataDictionary.xlsx
+++ b/skl_demo/LCDataDictionary.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="320" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="33240" yWindow="320" windowWidth="25600" windowHeight="14760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
-    <sheet name="browseNotes" sheetId="6" r:id="rId2"/>
-    <sheet name="RejectStats" sheetId="7" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="8" r:id="rId2"/>
+    <sheet name="browseNotes" sheetId="6" r:id="rId3"/>
+    <sheet name="RejectStats" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">browseNotes!$A$1:$B$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$D$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="465">
   <si>
     <t>id</t>
   </si>
@@ -2167,6 +2168,29 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>e du</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此列</t>
+  </si>
+  <si>
+    <t>无此列</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ci lie</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此列</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ci l</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2846,7 +2870,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2913,6 +2937,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="98">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3319,9 +3344,9 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5178,6 +5203,2318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="D2" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="G2" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="D3" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="D4" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="D10" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="G22" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="D25" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="G25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="D26" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="G26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="D27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="D30" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="D31" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="G32" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="D33" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="D35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="G35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="G37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="G38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="D40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="G40" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="D43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="G43" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="G44" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="G45" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="D47" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="G47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="D50" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="D51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="D53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="G53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="D56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="G56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="D57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="G57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="G59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="D61" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="D62" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="D63" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="D64" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="G64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="D65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="D66" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="G66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="D68" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="G68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="D69" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="G70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="G71" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="D73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="D74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="G74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="G75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="D76" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="D77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="D78" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="G79" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="D80" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="D81" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="G82" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="D83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="G84" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="G87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="D88" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="G89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="G90" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="G91" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="D92" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="G92" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="D93" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="D95" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="D96" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="D98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="D99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="D100" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G100" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="D101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="D102" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="G102" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="D103" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="G103" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="D104" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="30"/>
+      <c r="G104" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="D105" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="D106" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="G106" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="D107" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="G108" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="G109" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="G110" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="D111" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G112" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="D113" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="H113" s="33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G114" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="H114" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="D115" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D152" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D153" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D154" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D155" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F123"/>
   <sheetViews>
@@ -6360,7 +8697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/skl_demo/LCDataDictionary.xlsx
+++ b/skl_demo/LCDataDictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="320" windowWidth="25600" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="28960" yWindow="640" windowWidth="28180" windowHeight="17280"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>Indicates if income was verified by LC, not verified, or if the income source was verified</t>
-  </si>
-  <si>
-    <t>post charge off collection fee</t>
   </si>
   <si>
     <t>recoveries</t>
@@ -2003,10 +2000,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>销账后总回收率</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>fico_range_high</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2191,6 +2184,21 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ci l</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>post charge off collection fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoveries</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲销坏账回收率 余额</t>
+    <rPh sb="8" eb="9">
+      <t>yue</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2770,7 +2778,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2813,6 +2821,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2939,7 +2949,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="100">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2993,6 +3003,7 @@
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -3037,6 +3048,7 @@
     <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3344,9 +3356,9 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3371,10 +3383,10 @@
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -3384,11 +3396,11 @@
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>46</v>
@@ -3397,27 +3409,27 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3427,36 +3439,36 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3466,7 +3478,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>154</v>
@@ -3475,11 +3487,11 @@
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -3488,11 +3500,11 @@
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>48</v>
@@ -3504,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="3" t="s">
@@ -3514,16 +3526,16 @@
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3532,7 +3544,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
@@ -3545,10 +3557,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
@@ -3557,10 +3569,10 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3" t="s">
@@ -3570,10 +3582,10 @@
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
@@ -3587,38 +3599,38 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3628,7 +3640,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
@@ -3640,10 +3652,10 @@
         <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>162</v>
@@ -3652,27 +3664,27 @@
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3682,7 +3694,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>215</v>
@@ -3695,7 +3707,7 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>216</v>
@@ -3708,7 +3720,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
@@ -3721,10 +3733,10 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -3733,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
@@ -3743,12 +3755,12 @@
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="24"/>
     </row>
@@ -3765,27 +3777,27 @@
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -3795,10 +3807,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -3819,7 +3831,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>83</v>
@@ -3831,13 +3843,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37" s="5"/>
       <c r="K37" s="10"/>
@@ -3848,13 +3860,13 @@
         <v>41</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -3865,7 +3877,7 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="4"/>
     </row>
@@ -3876,7 +3888,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -3896,13 +3908,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -3912,7 +3924,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>62</v>
@@ -3925,7 +3937,7 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>84</v>
@@ -3934,12 +3946,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -3948,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="1" t="s">
@@ -3961,7 +3973,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3993,7 +4005,7 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>129</v>
@@ -4013,7 +4025,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -4057,20 +4069,20 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4081,18 +4093,18 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4103,7 +4115,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4117,10 +4129,10 @@
         <v>40</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>93</v>
@@ -4233,13 +4245,13 @@
         <v>116</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -4247,10 +4259,10 @@
         <v>115</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>140</v>
@@ -4261,10 +4273,10 @@
         <v>114</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>139</v>
@@ -4288,7 +4300,7 @@
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>71</v>
@@ -4296,66 +4308,66 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -4390,7 +4402,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4403,11 +4415,11 @@
         <v>124</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -4415,10 +4427,10 @@
         <v>26</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>73</v>
@@ -4429,7 +4441,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
@@ -4442,10 +4454,10 @@
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -4453,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
@@ -4462,16 +4474,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -4480,7 +4492,7 @@
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>74</v>
@@ -4502,7 +4514,7 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>76</v>
@@ -4513,7 +4525,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
@@ -4526,7 +4538,7 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>77</v>
@@ -4538,7 +4550,7 @@
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>78</v>
@@ -4549,7 +4561,7 @@
         <v>123</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
@@ -4562,7 +4574,7 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>150</v>
@@ -4584,7 +4596,7 @@
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>79</v>
@@ -4592,7 +4604,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4602,17 +4614,17 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4622,12 +4634,12 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -4646,10 +4658,10 @@
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -4668,7 +4680,7 @@
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>90</v>
@@ -4679,10 +4691,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>89</v>
@@ -4694,7 +4706,7 @@
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>91</v>
@@ -4706,7 +4718,7 @@
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>153</v>
@@ -4717,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="2" t="s">
@@ -4726,11 +4738,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>217</v>
@@ -4738,452 +4750,452 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
@@ -5204,83 +5216,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="9"/>
       <c r="D2" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" s="7"/>
       <c r="D3" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J3" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="9"/>
       <c r="D4" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5293,171 +5323,219 @@
         <v>109</v>
       </c>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="9"/>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="9"/>
       <c r="D10" s="36" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J11" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -5467,26 +5545,34 @@
         <v>4</v>
       </c>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -5499,31 +5585,39 @@
         <v>11</v>
       </c>
       <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>161</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3</v>
@@ -5533,8 +5627,12 @@
         <v>30</v>
       </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -5544,32 +5642,40 @@
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J20" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J21" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>11</v>
@@ -5579,24 +5685,32 @@
         <v>22</v>
       </c>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="9"/>
       <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,40 +5723,56 @@
         <v>6</v>
       </c>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="9"/>
       <c r="G25" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3"/>
       <c r="D26" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="9"/>
       <c r="G26" s="34" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="41" t="s">
         <v>11</v>
       </c>
@@ -5655,13 +5785,17 @@
         <v>39</v>
       </c>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -5671,12 +5805,18 @@
         <v>38</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="9"/>
       <c r="D29" s="3" t="s">
@@ -5687,8 +5827,12 @@
         <v>2</v>
       </c>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -5697,32 +5841,40 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="9"/>
       <c r="D31" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J31" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="9"/>
       <c r="D32" s="3" t="s">
@@ -5730,11 +5882,15 @@
       </c>
       <c r="E32" s="7"/>
       <c r="G32" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="38" t="s">
         <v>22</v>
       </c>
@@ -5743,14 +5899,18 @@
         <v>38</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J33" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -5763,8 +5923,12 @@
         <v>120</v>
       </c>
       <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J34" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -5777,45 +5941,57 @@
         <v>106</v>
       </c>
       <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J36" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E37" s="9"/>
       <c r="G37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>119</v>
@@ -5825,13 +6001,17 @@
         <v>103</v>
       </c>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>120</v>
@@ -5841,8 +6021,12 @@
         <v>24</v>
       </c>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -5852,27 +6036,35 @@
       </c>
       <c r="E40" s="9"/>
       <c r="G40" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J40" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J41" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -5882,11 +6074,15 @@
       </c>
       <c r="E42" s="3"/>
       <c r="G42" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J42" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="25" t="s">
         <v>14</v>
       </c>
@@ -5896,13 +6092,17 @@
       </c>
       <c r="E43" s="8"/>
       <c r="G43" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J43" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" s="9"/>
       <c r="D44" s="3" t="s">
@@ -5910,101 +6110,131 @@
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J44" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" s="9"/>
       <c r="G45" s="34" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E46" s="9"/>
       <c r="G46" s="9" t="s">
         <v>99</v>
       </c>
       <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J46" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="9"/>
       <c r="D47" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E47" s="8"/>
       <c r="G47" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="40" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="9"/>
       <c r="D48" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E48" s="9"/>
       <c r="G48" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="9"/>
       <c r="D49" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E49" s="9"/>
       <c r="G49" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" s="9"/>
       <c r="D50" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -6017,8 +6247,12 @@
         <v>117</v>
       </c>
       <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>103</v>
       </c>
@@ -6031,8 +6265,12 @@
         <v>122</v>
       </c>
       <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
@@ -6045,10 +6283,14 @@
         <v>97</v>
       </c>
       <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="9"/>
       <c r="D54" s="9" t="s">
@@ -6059,10 +6301,14 @@
         <v>121</v>
       </c>
       <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J54" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="9"/>
       <c r="D55" s="9" t="s">
@@ -6073,10 +6319,14 @@
         <v>104</v>
       </c>
       <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J55" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="8"/>
       <c r="D56" s="9" t="s">
@@ -6087,10 +6337,14 @@
         <v>105</v>
       </c>
       <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B57" s="9"/>
       <c r="D57" s="9" t="s">
@@ -6101,10 +6355,14 @@
         <v>25</v>
       </c>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="9" t="s">
@@ -6112,27 +6370,35 @@
       </c>
       <c r="E58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J58" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>99</v>
       </c>
@@ -6142,11 +6408,15 @@
       </c>
       <c r="E60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J60" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>111</v>
       </c>
@@ -6155,14 +6425,18 @@
         <v>116</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J61" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>118</v>
       </c>
@@ -6171,14 +6445,18 @@
         <v>115</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J62" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>112</v>
       </c>
@@ -6187,14 +6465,18 @@
         <v>114</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J63" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>110</v>
       </c>
@@ -6207,8 +6489,12 @@
         <v>31</v>
       </c>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>117</v>
       </c>
@@ -6221,107 +6507,141 @@
         <v>32</v>
       </c>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E66" s="9"/>
       <c r="G66" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="9"/>
       <c r="D67" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J67" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E68" s="9"/>
       <c r="G68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E69" s="9"/>
       <c r="G69" s="9" t="s">
         <v>98</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E70" s="9"/>
       <c r="G70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="36" t="s">
         <v>115</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" s="9"/>
       <c r="G71" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="36" t="s">
         <v>114</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>31</v>
@@ -6331,8 +6651,12 @@
         <v>27</v>
       </c>
       <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>105</v>
       </c>
@@ -6345,8 +6669,12 @@
         <v>28</v>
       </c>
       <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>25</v>
       </c>
@@ -6359,74 +6687,96 @@
         <v>9</v>
       </c>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E75" s="9"/>
       <c r="G75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="9"/>
       <c r="D76" s="35" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" s="9"/>
       <c r="D77" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="9"/>
       <c r="D78" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>108</v>
       </c>
       <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J78" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B79" s="9"/>
       <c r="D79" s="3" t="s">
@@ -6437,40 +6787,52 @@
         <v>107</v>
       </c>
       <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J79" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B80" s="9"/>
       <c r="D80" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B81" s="3"/>
       <c r="D81" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J81" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>32</v>
       </c>
@@ -6480,11 +6842,15 @@
       </c>
       <c r="E82" s="3"/>
       <c r="G82" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J82" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>113</v>
       </c>
@@ -6494,13 +6860,17 @@
       </c>
       <c r="E83" s="3"/>
       <c r="G83" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J83" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B84" s="9"/>
       <c r="D84" s="3" t="s">
@@ -6508,34 +6878,42 @@
       </c>
       <c r="E84" s="3"/>
       <c r="G84" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J84" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="35" t="s">
         <v>124</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>102</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>95</v>
       </c>
       <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J85" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>5</v>
@@ -6545,13 +6923,17 @@
         <v>33</v>
       </c>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>19</v>
@@ -6561,8 +6943,12 @@
         <v>34</v>
       </c>
       <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>18</v>
       </c>
@@ -6571,19 +6957,23 @@
         <v>123</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>108</v>
@@ -6593,13 +6983,17 @@
         <v>35</v>
       </c>
       <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>107</v>
@@ -6609,8 +7003,12 @@
         <v>212</v>
       </c>
       <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J90" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>27</v>
       </c>
@@ -6620,57 +7018,65 @@
       </c>
       <c r="E91" s="3"/>
       <c r="G91" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J91" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="3"/>
       <c r="D92" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E92" s="9"/>
       <c r="G92" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H92" s="30"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J92" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="K92" s="30"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="3"/>
       <c r="D93" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="3"/>
       <c r="D95" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>19</v>
       </c>
@@ -6685,7 +7091,7 @@
         <v>123</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>33</v>
@@ -6721,18 +7127,18 @@
         <v>37</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="9"/>
       <c r="D101" s="3" t="s">
@@ -6740,15 +7146,15 @@
       </c>
       <c r="E101" s="3"/>
       <c r="G101" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B102" s="9"/>
       <c r="D102" s="40" t="s">
@@ -6759,39 +7165,39 @@
         <v>100</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B103" s="9"/>
       <c r="D103" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E103" s="7"/>
       <c r="G103" s="35" t="s">
         <v>101</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" s="9"/>
       <c r="D104" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E104" s="30"/>
       <c r="G104" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -6800,16 +7206,16 @@
       </c>
       <c r="B105" s="9"/>
       <c r="D105" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G105" s="36" t="s">
         <v>116</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
@@ -6818,16 +7224,16 @@
       </c>
       <c r="B106" s="3"/>
       <c r="D106" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G106" s="36" t="s">
         <v>115</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -6836,16 +7242,16 @@
       </c>
       <c r="B107" s="3"/>
       <c r="D107" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G107" s="36" t="s">
         <v>114</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
@@ -6857,7 +7263,7 @@
         <v>124</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
@@ -6865,7 +7271,7 @@
         <v>37</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="42"/>
@@ -6873,7 +7279,7 @@
         <v>15</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
@@ -6887,7 +7293,7 @@
         <v>102</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
@@ -6896,16 +7302,16 @@
       </c>
       <c r="B111" s="9"/>
       <c r="D111" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G111" s="35" t="s">
         <v>37</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
@@ -6913,604 +7319,887 @@
         <v>16</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B113" s="7"/>
       <c r="D113" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D114" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B115" s="30"/>
       <c r="D115" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H121" s="32" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H123" s="32" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E126" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B128" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="H128" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D128" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="E128" s="30" t="s">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H129" s="30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="36" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B129" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D129" s="31" t="s">
+      <c r="B130" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D130" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E130" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H130" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H131" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H132" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H136" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="H138" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="H139" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="H141" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="H142" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E143" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="B130" s="33" t="s">
+      <c r="G143" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="H143" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D130" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="E130" s="33" t="s">
+      <c r="G144" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="H144" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="B131" s="33" t="s">
+      <c r="G145" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="H145" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D131" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="E131" s="33" t="s">
+      <c r="D146" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="33" t="s">
+      <c r="G146" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="H146" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B147" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D132" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="E132" s="33" t="s">
+      <c r="D147" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="B133" s="33" t="s">
+      <c r="G147" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="H147" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B148" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D133" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="E133" s="33" t="s">
+      <c r="D148" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E148" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" s="33" t="s">
+      <c r="G148" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H148" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D134" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="E134" s="33" t="s">
+      <c r="G149" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="H149" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B150" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="B135" s="33" t="s">
+      <c r="D150" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="D135" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D140" s="31" t="s">
+      <c r="D151" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G151" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="H151" s="33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A145" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="B145" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D146" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D147" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D150" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D151" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D152" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D153" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E153" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="H153" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D154" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E154" s="18" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D154" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G154" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="H154" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D155" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E155" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H155" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G156" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="H156" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G157" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="H157" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G158" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G160" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G161" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G162" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H162" s="7" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G163" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G164" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G165" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7576,7 +8265,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7584,18 +8273,18 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7605,16 +8294,16 @@
         <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -7721,16 +8410,16 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7748,10 +8437,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -7806,7 +8495,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -7817,7 +8506,7 @@
         <v>194</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7868,10 +8557,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -7900,10 +8589,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -7911,10 +8600,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -7925,7 +8614,7 @@
         <v>196</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -7985,10 +8674,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -8076,10 +8765,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="F53" s="6"/>
     </row>
@@ -8267,58 +8956,58 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
@@ -8375,7 +9064,7 @@
         <v>18</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F85" s="6"/>
     </row>
@@ -8487,18 +9176,18 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -8551,130 +9240,130 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" s="18" t="s">
         <v>304</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" s="18" t="s">
         <v>308</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -8713,7 +9402,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>44</v>
@@ -8721,23 +9410,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>78</v>
@@ -8745,39 +9434,39 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>237</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>173</v>
@@ -8785,10 +9474,10 @@
     </row>
     <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
